--- a/src/test/java/ExcelRepots/ParaBank_ExcelReport.xlsx
+++ b/src/test/java/ExcelRepots/ParaBank_ExcelReport.xlsx
@@ -11,6 +11,23 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+  <si>
+    <t>Failed and Successful login</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Account Details Access</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,7 +500,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,14 +1185,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.1428571428571" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
